--- a/samgov.xlsx
+++ b/samgov.xlsx
@@ -995,42 +995,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N4008525R2673</t>
+          <t>W911XK25BA019</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Building CB125  Blast/Paint Facility-Modernize Electrical System</t>
+          <t>FY25 Holland Inner Harbor Maintenance Dredging and Weir Repair</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-08T04:00:00-04:00</t>
+          <t>2025-06-11T14:00:00-04:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DEPT OF DEFENSE.DEPT OF THE NAVY.NAVFAC.NAVFAC ATLANTIC CMD.NAVFAC MID-ATLANTIC.NAVFACSYSCOM MID-ATLANTIC</t>
+          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.US ARMY CORPS OF ENGINEERS.ENGINEER DIVISION GREAT LAKES AND OHIO.W072 ENDIST DETROIT</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>236220</v>
+        <v>237990</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>23455</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>2100 GATOR BOULEVARD VIRGINIA BEACH, VA 23455</t>
-        </is>
-      </c>
+        <v>49424</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/c3011d40b6ec46a6bc9ca752fbb3255e/view</t>
+          <t>https://sam.gov/opp/b688de3028444345825898a1ed5834ab/view</t>
         </is>
       </c>
     </row>
@@ -1042,38 +1038,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>W911XK25BA019</t>
+          <t>140L3725R0004</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>FY25 Holland Inner Harbor Maintenance Dredging and Weir Repair</t>
+          <t>Z--NIFC 300 JWH MPR Suite</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-06-11T14:00:00-04:00</t>
+          <t>2025-06-17T10:00:00-06:00</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.US ARMY CORPS OF ENGINEERS.ENGINEER DIVISION GREAT LAKES AND OHIO.W072 ENDIST DETROIT</t>
+          <t>INTERIOR, DEPARTMENT OF THE.BUREAU OF LAND MANAGEMENT.NATIONAL INTERAGENCY FIRE CENTER</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>237990</v>
+        <v>236220</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>49424</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/b688de3028444345825898a1ed5834ab/view</t>
+          <t>https://sam.gov/opp/adc2238398e24a5ca44ee133ff08d608/view</t>
         </is>
       </c>
     </row>
@@ -1085,26 +1079,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>140L3725R0004</t>
+          <t>W912CH-24-R-0095</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Z--NIFC 300 JWH MPR Suite</t>
+          <t>Solicitation (Amendment 0002) For: Electronic Parts Kit, NSN 5999-01-130-8077</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-17T10:00:00-06:00</t>
+          <t>2025-06-27T15:00:00-04:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>INTERIOR, DEPARTMENT OF THE.BUREAU OF LAND MANAGEMENT.NATIONAL INTERAGENCY FIRE CENTER</t>
+          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.AMC.ACC.ACC-CTRS.ACC WRN.W6QK ACC- DTA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>236220</v>
+        <v>334419</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1114,7 +1108,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/adc2238398e24a5ca44ee133ff08d608/view</t>
+          <t>https://sam.gov/opp/ab5c8619d0624f6b867185d8194ef459/view</t>
         </is>
       </c>
     </row>
@@ -1126,36 +1120,54 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>W912CH-24-R-0095</t>
+          <t>128240LQ25Q0013</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Solicitation (Amendment 0002) For: Electronic Parts Kit, NSN 5999-01-130-8077</t>
+          <t>Refrigeration Trailer Rental</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-27T15:00:00-04:00</t>
+          <t>2025-06-25T17:00:00-06:00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.AMC.ACC.ACC-CTRS.ACC WRN.W6QK ACC- DTA</t>
+          <t>AGRICULTURE, DEPARTMENT OF.FOREST SERVICE.USDA FOREST SERVICE-SPOC IM</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>334419</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>532120</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Colorado</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Colorado Springs</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>16000</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>80903</v>
+      </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/ab5c8619d0624f6b867185d8194ef459/view</t>
+          <t>https://sam.gov/opp/a74b0244aa4946b99878f89662d67218/view</t>
         </is>
       </c>
     </row>
@@ -1167,54 +1179,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>128240LQ25Q0013</t>
+          <t>140D0425Q0489</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Refrigeration Trailer Rental</t>
+          <t>AVSO Land Appraisal: MMR (16) THE NATURE CONSERVAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-25T17:00:00-06:00</t>
+          <t>2025-06-18T15:00:00-06:00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AGRICULTURE, DEPARTMENT OF.FOREST SERVICE.USDA FOREST SERVICE-SPOC IM</t>
+          <t>INTERIOR, DEPARTMENT OF THE.DEPARTMENTAL OFFICES.IBC ACQ SVCS DIRECTORATE (00004)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>532120</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Colorado</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Colorado Springs</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>16000</t>
-        </is>
-      </c>
-      <c r="K15" t="n">
-        <v>80903</v>
-      </c>
+        <v>531320</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/a74b0244aa4946b99878f89662d67218/view</t>
+          <t>https://sam.gov/opp/99c20540dec84296912e5380490f49fe/view</t>
         </is>
       </c>
     </row>
@@ -1226,36 +1220,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>140D0425Q0489</t>
+          <t>W912BV25Q0040</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVSO Land Appraisal: MMR (16) THE NATURE CONSERVAN</t>
+          <t>Keystone Tainter Gate NDE  Material Testing</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-18T15:00:00-06:00</t>
+          <t>2025-06-16T14:00:00-05:00</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>INTERIOR, DEPARTMENT OF THE.DEPARTMENTAL OFFICES.IBC ACQ SVCS DIRECTORATE (00004)</t>
+          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.US ARMY CORPS OF ENGINEERS.ENGINEER DIVISION SOUTHWESTERN.W076 ENDIST TULSA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>531320</v>
+        <v>541380</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>74063</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Keystone Dam, OK-151, Sand Springs, OK 74063</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/99c20540dec84296912e5380490f49fe/view</t>
+          <t>https://sam.gov/opp/933bf9d8923247dfb8c95ec6c4395dfc/view</t>
         </is>
       </c>
     </row>
@@ -1267,42 +1267,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>W912BV25Q0040</t>
+          <t>140FC225Q0033</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Keystone Tainter Gate NDE  Material Testing</t>
+          <t>PATUXENT RESEARCH REFUGE Replacement of Water Well</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-16T14:00:00-05:00</t>
+          <t>2025-06-25T14:00:00-04:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>DEPT OF DEFENSE.DEPT OF THE ARMY.US ARMY CORPS OF ENGINEERS.ENGINEER DIVISION SOUTHWESTERN.W076 ENDIST TULSA</t>
+          <t>INTERIOR, DEPARTMENT OF THE.US FISH AND WILDLIFE SERVICE.FWS, CONSTRUCTION A/E TEAM 3</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>541380</v>
+        <v>236220</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>74063</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Keystone Dam, OK-151, Sand Springs, OK 74063</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/933bf9d8923247dfb8c95ec6c4395dfc/view</t>
+          <t>https://sam.gov/opp/8580e29552c241af84653877c04fd197/view</t>
         </is>
       </c>
     </row>
@@ -1314,36 +1308,52 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>140FC225Q0033</t>
+          <t>N0016725Q1079</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PATUXENT RESEARCH REFUGE Replacement of Water Well</t>
+          <t>Naval Surface Warfare Center Carderock Division Inconel clad steel shaft test article</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-25T14:00:00-04:00</t>
+          <t>2025-06-24T11:00:00-04:00</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>INTERIOR, DEPARTMENT OF THE.US FISH AND WILDLIFE SERVICE.FWS, CONSTRUCTION A/E TEAM 3</t>
+          <t>DEPT OF DEFENSE.DEPT OF THE NAVY.NAVSEA.NAVSEA WARFARE CENTER.NSWC CARDEROCK</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>236220</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+        <v>332111</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>MD</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Maryland</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>St James</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/8580e29552c241af84653877c04fd197/view</t>
+          <t>https://sam.gov/opp/845cfb852239493c84663fb04122ebb9/view</t>
         </is>
       </c>
     </row>
@@ -1355,52 +1365,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>N0016725Q1079</t>
+          <t>N4008525R2673</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Naval Surface Warfare Center Carderock Division Inconel clad steel shaft test article</t>
+          <t>Building CB125  Blast/Paint Facility-Modernize Electrical System</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-06-24T11:00:00-04:00</t>
+          <t>2025-07-08T04:00:00-04:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>DEPT OF DEFENSE.DEPT OF THE NAVY.NAVSEA.NAVSEA WARFARE CENTER.NSWC CARDEROCK</t>
+          <t>DEPT OF DEFENSE.DEPT OF THE NAVY.NAVFAC.NAVFAC ATLANTIC CMD.NAVFAC MID-ATLANTIC.NAVFACSYSCOM MID-ATLANTIC</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>332111</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>MD</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Maryland</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>St James</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+        <v>236220</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>23455</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2100 GATOR BOULEVARD VIRGINIA BEACH, VA 23455</t>
+        </is>
+      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>https://sam.gov/opp/845cfb852239493c84663fb04122ebb9/view</t>
+          <t>https://sam.gov/opp/7c550567833f445eb8607969beca973b/view</t>
         </is>
       </c>
     </row>
